--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/ALASKA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/ALASKA_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C3">
@@ -413,12 +413,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C4">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -444,12 +444,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C6">
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C7">
@@ -475,12 +475,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C8">
@@ -493,7 +493,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C9">
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C10">
@@ -519,7 +519,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C11">
@@ -532,12 +532,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C12">
@@ -550,7 +550,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C13">
@@ -563,12 +563,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C14">
@@ -581,7 +581,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -594,12 +594,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C16">
@@ -612,7 +612,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C17">
@@ -625,7 +625,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C18">
@@ -638,7 +638,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C19">
@@ -651,12 +651,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C20">
@@ -669,7 +669,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21">
@@ -682,12 +682,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C22">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>JALOSTOTITLÁN</t>
+          <t>Jalostotitlán</t>
         </is>
       </c>
       <c r="C23">
@@ -713,7 +713,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C24">
@@ -726,7 +726,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C25">
@@ -739,7 +739,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C26">
@@ -752,7 +752,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C27">
@@ -765,12 +765,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ACUITZIO</t>
+          <t>Acuitzio</t>
         </is>
       </c>
       <c r="C28">
@@ -783,7 +783,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C29">
@@ -796,7 +796,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C30">
@@ -809,7 +809,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>INDAPARAPEO</t>
+          <t>Indaparapeo</t>
         </is>
       </c>
       <c r="C31">
@@ -822,7 +822,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C32">
@@ -835,7 +835,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C33">
@@ -848,12 +848,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C34">
@@ -866,7 +866,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C35">
@@ -879,12 +879,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C36">
@@ -897,7 +897,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C37">
@@ -910,12 +910,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HUEHUETLÁN EL GRANDE</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C38">
@@ -928,7 +928,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C39">
@@ -941,7 +941,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C40">
@@ -954,7 +954,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C41">
@@ -967,12 +967,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TOLIMÁN</t>
+          <t>Tolimán</t>
         </is>
       </c>
       <c r="C42">
@@ -985,7 +985,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C43">
@@ -998,12 +998,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C44">
@@ -1016,7 +1016,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>ELOTA</t>
+          <t>Elota</t>
         </is>
       </c>
       <c r="C45">
@@ -1029,7 +1029,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C46">
@@ -1042,12 +1042,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C47">
@@ -1060,7 +1060,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C48">
@@ -1073,12 +1073,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C49">
@@ -1091,7 +1091,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C50">
@@ -1104,7 +1104,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>SAYULA DE ALEMÁN</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C51">
@@ -1117,7 +1117,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C52">
@@ -1130,7 +1130,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C53">
@@ -1143,12 +1143,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C54">
@@ -1161,7 +1161,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C55">
@@ -1174,7 +1174,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C56">
@@ -1187,7 +1187,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C57">
@@ -1200,7 +1200,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C58">
@@ -1213,7 +1213,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C59">
@@ -1221,41 +1221,6 @@
       </c>
       <c r="D59">
         <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/ALASKA_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/ALASKA_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -610,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -667,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -698,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -781,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -864,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -895,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -926,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -939,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -952,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -983,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1014,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -1027,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1058,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1089,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -1102,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -1115,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1128,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1159,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1172,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -1185,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1198,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
